--- a/by_county.xlsx
+++ b/by_county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chen_yenru/Documents/GitHub/School/bio_ia_air/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546458C2-2B92-8E4C-91B7-584445592FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC05B8F1-3297-E247-BA10-8AF1903DA6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30080" windowHeight="16920" activeTab="1" xr2:uid="{088A10E8-44B9-A043-83E1-874E1F5C7977}"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="16920" activeTab="1" xr2:uid="{088A10E8-44B9-A043-83E1-874E1F5C7977}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -727,6 +727,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>pm2.5 六都分法</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9196,16 +9221,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>307531</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>36188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>294831</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>202927</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10615,8 +10640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEF7CA6-AEA5-5C41-BF00-EF126C2EA709}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12061,8 +12086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33494CF2-3AA8-0845-9805-612A4CA00986}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="J6" zoomScale="125" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
